--- a/output/fit_clients/fit_round_497.xlsx
+++ b/output/fit_clients/fit_round_497.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1544490219.954568</v>
+        <v>2195553827.524538</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09603368786783414</v>
+        <v>0.113852982745966</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03360121291760809</v>
+        <v>0.03836545227858297</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>772245044.4311459</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1758688477.667336</v>
+        <v>1618718717.044153</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1662909358377553</v>
+        <v>0.1531615840007406</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03750692836459796</v>
+        <v>0.03515038107012245</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>879344241.5524859</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3812432226.02547</v>
+        <v>3234633995.619563</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1044340365401691</v>
+        <v>0.1393464719690786</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03500373370729021</v>
+        <v>0.03112848068209889</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>180</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1906216113.938886</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3084279375.451637</v>
+        <v>3490969219.210804</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1100477784011631</v>
+        <v>0.1078476230803108</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04542145707397578</v>
+        <v>0.03834185022573632</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>184</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1542139751.99944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2235139416.185415</v>
+        <v>2540426791.27579</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1179337833550381</v>
+        <v>0.09540980448534299</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04913839566511017</v>
+        <v>0.04837138183854061</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1117569712.261387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2449708877.282354</v>
+        <v>1965577398.966325</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08456177135353386</v>
+        <v>0.08776513295302008</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03802387371413915</v>
+        <v>0.04780356350312525</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>157</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1224854456.538097</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3146704898.966748</v>
+        <v>3203409258.719528</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1521172703406162</v>
+        <v>0.137417047985907</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02798447126823859</v>
+        <v>0.0318229280189886</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>158</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1573352522.015586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1740630085.369888</v>
+        <v>2011969507.463474</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1518074583737579</v>
+        <v>0.1400021752599311</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02517339155483166</v>
+        <v>0.02413306077806945</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>870315105.3024822</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3681620584.397601</v>
+        <v>3928616444.356991</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1545921233695875</v>
+        <v>0.1553220894325633</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0497364656078654</v>
+        <v>0.05284129753855742</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>209</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1840810289.436069</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4138391236.357652</v>
+        <v>3947919887.337723</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1613538771590927</v>
+        <v>0.1326445358859603</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03595734239237693</v>
+        <v>0.03642412318875434</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>205</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2069195640.4953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2713681798.81264</v>
+        <v>3016698832.039599</v>
       </c>
       <c r="F12" t="n">
-        <v>0.15593259410962</v>
+        <v>0.1732436681258191</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04812861829910745</v>
+        <v>0.03500957772700697</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>168</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1356840891.236961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3520072567.810266</v>
+        <v>5150028124.356016</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06953657462687249</v>
+        <v>0.09546550293219529</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02594631820893469</v>
+        <v>0.02488710315133849</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>167</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1760036363.231428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2980247758.021872</v>
+        <v>2718704089.221778</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1165320949747094</v>
+        <v>0.1479436527319113</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0350695430391892</v>
+        <v>0.03824560776090792</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>161</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1490123914.903126</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1142830097.791553</v>
+        <v>1733819985.105773</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07354287541981733</v>
+        <v>0.09616472195152835</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04764308807091076</v>
+        <v>0.04683268875354206</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>571415053.4461926</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1965939004.163487</v>
+        <v>1872410483.672498</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08382647982958061</v>
+        <v>0.07564094206530007</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05151257903235776</v>
+        <v>0.04378338704250116</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>102</v>
-      </c>
-      <c r="J16" t="n">
-        <v>982969580.6296765</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3468609108.630814</v>
+        <v>3953645305.639338</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1693276947841613</v>
+        <v>0.1633044513800059</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03233570640788878</v>
+        <v>0.04262206271767698</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>149</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1734304615.221464</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2860753006.608668</v>
+        <v>3628965033.341387</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1134644544428949</v>
+        <v>0.1362048582440649</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02259578896186974</v>
+        <v>0.02690358432814386</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>163</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1430376543.672763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1013003043.207542</v>
+        <v>964421831.3858709</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1178027830630113</v>
+        <v>0.152654123220813</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01756705110797595</v>
+        <v>0.02018296455119561</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>506501554.0067375</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2499298584.550023</v>
+        <v>2277767702.532604</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1160029775727541</v>
+        <v>0.1095139577764951</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02017648122281313</v>
+        <v>0.02642848051170172</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>69</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1249649265.467353</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2436168428.995535</v>
+        <v>2197804924.563688</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09642816507148572</v>
+        <v>0.0810515119520718</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03241679777767176</v>
+        <v>0.03203833209616946</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>37</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1218084208.768395</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3101526273.02223</v>
+        <v>3284152578.36587</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09902649825889547</v>
+        <v>0.09525755076966518</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04395244225139338</v>
+        <v>0.04881866303656449</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>137</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1550763191.987095</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1051274100.188263</v>
+        <v>1025367509.676256</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1123298956450234</v>
+        <v>0.1697455332543774</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05445355130400786</v>
+        <v>0.04188992812376743</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>525637111.6841784</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3534313132.196173</v>
+        <v>3591308283.73749</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09881640700384978</v>
+        <v>0.123530176455948</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02606308993205017</v>
+        <v>0.03538469582330341</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>145</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1767156565.429941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1314983428.334048</v>
+        <v>933934437.0615462</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1169807059433832</v>
+        <v>0.1048008098513413</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02356851737903069</v>
+        <v>0.02027447169583976</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>657491705.6997286</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1235156052.454198</v>
+        <v>1140320535.613219</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1203427002164552</v>
+        <v>0.09662850633338549</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0379068232828208</v>
+        <v>0.02842083020477485</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>617578055.8732558</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3006511522.241469</v>
+        <v>2957247108.336977</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09955359483426617</v>
+        <v>0.1559505473519678</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02399274095507807</v>
+        <v>0.02102969387634747</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1503255820.623942</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2859189033.527174</v>
+        <v>3613915899.323526</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1250079834676162</v>
+        <v>0.1035219675462954</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04199337330583219</v>
+        <v>0.03033993014695401</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>162</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1429594515.81689</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4288400212.671606</v>
+        <v>3573012599.202862</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1291380861647579</v>
+        <v>0.09938988378540163</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04519890404202802</v>
+        <v>0.03641375093372422</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>220</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2144200103.18918</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1724077285.022607</v>
+        <v>2042434502.170861</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1129661876466496</v>
+        <v>0.1216437635755325</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02863558840456125</v>
+        <v>0.0286636001350105</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>862038648.5514796</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1135356640.432499</v>
+        <v>1232430219.875613</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09864408076172673</v>
+        <v>0.1013312372652107</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03466315032279789</v>
+        <v>0.03503325526927079</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>567678286.9182304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1670359685.960814</v>
+        <v>1870752332.102196</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1163297473552367</v>
+        <v>0.08411354916723895</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03456290476020574</v>
+        <v>0.02974486132204115</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>835179946.6478385</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1999663888.430264</v>
+        <v>1919269513.460143</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1904000977692075</v>
+        <v>0.1664331210648245</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05941850345666996</v>
+        <v>0.04627714547392134</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>153</v>
-      </c>
-      <c r="J33" t="n">
-        <v>999832025.0559648</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>980909258.8771794</v>
+        <v>1407134882.910347</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1096629303942667</v>
+        <v>0.1191104504475521</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02379293080973115</v>
+        <v>0.02570806001801275</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>490454670.4877368</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1211163464.962935</v>
+        <v>884188543.408322</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1176827096268837</v>
+        <v>0.08954386174652858</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04445684633086545</v>
+        <v>0.03166881244026395</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>605581704.782714</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3156958727.50405</v>
+        <v>2796837921.612008</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1483309862482285</v>
+        <v>0.1627381060862502</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01789854001049852</v>
+        <v>0.02726588325352849</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>126</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1578479333.094064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2652999190.433839</v>
+        <v>2535254917.948616</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08733010681906746</v>
+        <v>0.1017069096438675</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03366527233451382</v>
+        <v>0.03235446414483276</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>135</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1326499712.329342</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1463783612.771135</v>
+        <v>1511777418.005048</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1127017917864044</v>
+        <v>0.1137161902738937</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02695654319989127</v>
+        <v>0.02675639668329844</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>731891860.7772872</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1725497531.87626</v>
+        <v>1628439617.084935</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1169041272165244</v>
+        <v>0.1640653514912155</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02676156770379955</v>
+        <v>0.03268129509433253</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>862748802.2005956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1181572075.481824</v>
+        <v>1587732929.932485</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0986564320435815</v>
+        <v>0.1238146357819504</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03719853486267555</v>
+        <v>0.05909810541414124</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>590786083.6583043</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2148085407.701841</v>
+        <v>1887656199.773337</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1040332643466797</v>
+        <v>0.1242734539749991</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0399442189309536</v>
+        <v>0.04148898555401277</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>120</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1074042763.569314</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3878317386.677056</v>
+        <v>3092035457.663401</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07965288709846813</v>
+        <v>0.127050663123245</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04243590060942184</v>
+        <v>0.03108289216734023</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>163</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1939158714.261055</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2866639124.375367</v>
+        <v>2392539007.251516</v>
       </c>
       <c r="F43" t="n">
-        <v>0.132605648946177</v>
+        <v>0.1700487246583017</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01599785661160044</v>
+        <v>0.02055094772607026</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>171</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1433319574.012431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2168444699.871596</v>
+        <v>2368321049.620739</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07592996676586439</v>
+        <v>0.0853352630873772</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03468977774675037</v>
+        <v>0.02444417454317325</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1084222489.896795</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2120988319.657341</v>
+        <v>2090864364.756813</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1808510197560621</v>
+        <v>0.1187566653374699</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03671080359619767</v>
+        <v>0.03741275593957013</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1060494162.897391</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3803821590.361598</v>
+        <v>5510603369.521182</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1426787915308455</v>
+        <v>0.1083086001243689</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04540659091723247</v>
+        <v>0.04003089680470981</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>177</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1901910753.491117</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3215197325.046688</v>
+        <v>4481546986.10521</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1438520552753499</v>
+        <v>0.1615139704673806</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05521417490829717</v>
+        <v>0.0520068503599618</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>138</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1607598617.191248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3533038654.605649</v>
+        <v>4326266668.415638</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09982418809817653</v>
+        <v>0.07787886943744292</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02803984230436719</v>
+        <v>0.03265921065895784</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>162</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1766519388.812821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1427486749.660842</v>
+        <v>1683171377.986603</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1957558824483143</v>
+        <v>0.1217324086778997</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03130235538512975</v>
+        <v>0.03480561012502287</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>713743418.1643903</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3415308964.821353</v>
+        <v>2804313690.336749</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1464355288144377</v>
+        <v>0.1583639952858215</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04009625786515058</v>
+        <v>0.03969981306708613</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>169</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1707654512.704409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1447458113.11083</v>
+        <v>1437083107.733341</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1868924594877879</v>
+        <v>0.1485152264761175</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0525816467732243</v>
+        <v>0.05011225455928659</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>723729068.0149033</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4009589295.068632</v>
+        <v>3370215438.120205</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08559985075418623</v>
+        <v>0.09745204131741572</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06049195755686466</v>
+        <v>0.05479263233956886</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>205</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2004794703.469967</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3440907189.139573</v>
+        <v>2371850188.617525</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1590368162836306</v>
+        <v>0.1705933415005335</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02546074919593014</v>
+        <v>0.03508272296154583</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>143</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1720453596.602848</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3731271822.102435</v>
+        <v>3879695804.781106</v>
       </c>
       <c r="F54" t="n">
-        <v>0.131478202977673</v>
+        <v>0.1117958331261693</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0521069900132453</v>
+        <v>0.04595811457465781</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>162</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1865635954.042144</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4218948151.261681</v>
+        <v>3370054321.420238</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1937826512135211</v>
+        <v>0.2151767709773676</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02824418595304587</v>
+        <v>0.02667051977485881</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2109474060.203285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1500360561.196438</v>
+        <v>1492520961.450406</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1422577284172898</v>
+        <v>0.1521977007130431</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05551593799045076</v>
+        <v>0.03518763802279733</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>750180322.8420451</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3610173477.02313</v>
+        <v>4076002611.988799</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1691771616679752</v>
+        <v>0.1746529540562733</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02171790622010132</v>
+        <v>0.01814843833471898</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>158</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1805086794.172848</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1267836401.819432</v>
+        <v>1293262864.429987</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1918732799613169</v>
+        <v>0.1522484514899766</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02952376649889189</v>
+        <v>0.02713716693512348</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>633918253.2530944</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4316858244.844307</v>
+        <v>4608742357.46541</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1081834787891105</v>
+        <v>0.1106870799461277</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03140810763661753</v>
+        <v>0.04732232000702395</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2158429083.106779</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2772748813.066702</v>
+        <v>2872728496.646565</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1348370069029178</v>
+        <v>0.1602728515232993</v>
       </c>
       <c r="G60" t="n">
-        <v>0.031452621265595</v>
+        <v>0.02493643015524435</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>156</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1386374453.06758</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2379476446.066542</v>
+        <v>2570177088.9097</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1223674831382698</v>
+        <v>0.1651071240573779</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02413376177963893</v>
+        <v>0.03123926119527047</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>172</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1189738262.042545</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1758620790.717352</v>
+        <v>1742454713.783802</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1602842455850278</v>
+        <v>0.1784621430240029</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04418245037714599</v>
+        <v>0.04969328673031832</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>879310417.2490635</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4944144203.805524</v>
+        <v>4138813926.304981</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07079702511011694</v>
+        <v>0.07248282654940121</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03547803127883131</v>
+        <v>0.03911602367930746</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>144</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2472072122.162535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5434254509.075492</v>
+        <v>4464747738.828613</v>
       </c>
       <c r="F64" t="n">
-        <v>0.184951859150928</v>
+        <v>0.1477320202612329</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02689831006298588</v>
+        <v>0.02210468238161461</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>155</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2717127391.30791</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6004763544.577156</v>
+        <v>3745833515.481311</v>
       </c>
       <c r="F65" t="n">
-        <v>0.14913852315465</v>
+        <v>0.151750507573189</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02052542148617863</v>
+        <v>0.02775884522468297</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>178</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3002381671.264204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4375684303.516191</v>
+        <v>3699548268.10611</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1389126756513142</v>
+        <v>0.1364365512182776</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03316355863210715</v>
+        <v>0.04870379908604993</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>147</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2187842145.49403</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2614450271.805615</v>
+        <v>2176021756.517337</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06286103559637794</v>
+        <v>0.1000093211527567</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03551107770624346</v>
+        <v>0.03444203969073936</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>160</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1307225186.864573</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4732446968.624225</v>
+        <v>4996032080.185911</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1313995194611006</v>
+        <v>0.1600703697644953</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04224165209259647</v>
+        <v>0.04621581830758397</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>159</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2366223524.52471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2358040545.485832</v>
+        <v>2220202886.067044</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1608765312341162</v>
+        <v>0.1114304306398318</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03694204933785167</v>
+        <v>0.04810395603109369</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1179020324.000785</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3038096274.098125</v>
+        <v>3347182616.129213</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08007494368712988</v>
+        <v>0.09910012360938299</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03317355541541754</v>
+        <v>0.04127144389221695</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>142</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1519048116.519735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5257220187.63204</v>
+        <v>3579340359.52082</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1652183536519195</v>
+        <v>0.1494715949618132</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02587636977494787</v>
+        <v>0.0244324444254743</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>181</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2628610218.751683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1711883895.586856</v>
+        <v>1855690205.278564</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06855493287145331</v>
+        <v>0.09128253390308876</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03436579256672707</v>
+        <v>0.0492335205040537</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>855941940.6007181</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3245696304.335171</v>
+        <v>3376736287.781952</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09196666919185981</v>
+        <v>0.09899753528372929</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04705693933891816</v>
+        <v>0.04843993816012787</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>187</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1622848125.677703</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2892943490.938512</v>
+        <v>3422003898.385353</v>
       </c>
       <c r="F74" t="n">
-        <v>0.14062942920904</v>
+        <v>0.137360061601224</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02472709948779938</v>
+        <v>0.02344499435774905</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>170</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1446471820.168594</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2059551154.78962</v>
+        <v>1526291506.194556</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1632237911277878</v>
+        <v>0.1324086468495741</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02746037523941122</v>
+        <v>0.03033728826714856</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1029775536.021703</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5016837708.5742</v>
+        <v>3464016670.697019</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09938956306953516</v>
+        <v>0.07606990156275169</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03340488665359027</v>
+        <v>0.03084548628404667</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2508418881.678201</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1986112918.266409</v>
+        <v>1500880196.666185</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1403965196806763</v>
+        <v>0.1193629870524466</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02462411786927676</v>
+        <v>0.02921447650370738</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>993056518.5955354</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3545086399.833513</v>
+        <v>3641560018.054965</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0940106033438336</v>
+        <v>0.09362605849156128</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03811755649539721</v>
+        <v>0.04567441541897319</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>173</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1772543198.211279</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1594110193.217859</v>
+        <v>1327521030.682774</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1334103782429538</v>
+        <v>0.1445407651029372</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03104158795310034</v>
+        <v>0.03641835865107367</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>797055147.2985342</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5518656312.849829</v>
+        <v>3396445457.194995</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1072946754815784</v>
+        <v>0.1050846275824966</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02957280524828841</v>
+        <v>0.02931726114745857</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2759328231.439858</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4735576320.196134</v>
+        <v>3664245559.885022</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1181138841028721</v>
+        <v>0.1281901383953244</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0321251288434416</v>
+        <v>0.02167371383168787</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2367788150.626263</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4223678603.365287</v>
+        <v>5006042748.527499</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2012534975386343</v>
+        <v>0.2053613890250125</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02069705838594925</v>
+        <v>0.01795019885048997</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>175</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2111839328.985234</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1612804099.960727</v>
+        <v>1784980234.449096</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1166931620807448</v>
+        <v>0.09933296215261564</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03149519927578476</v>
+        <v>0.04236098559974735</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>806401987.0923734</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2467325962.019137</v>
+        <v>2274732907.991568</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08313783108411171</v>
+        <v>0.1059129652708367</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0349486942676173</v>
+        <v>0.05085053196798239</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1233662917.65254</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2702792164.943039</v>
+        <v>3477425673.232791</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1489640281013659</v>
+        <v>0.1820301834851754</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03607083284231424</v>
+        <v>0.04137889261206341</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>186</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1351396109.814254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2372638178.269677</v>
+        <v>2529857495.048381</v>
       </c>
       <c r="F86" t="n">
-        <v>0.170514888062294</v>
+        <v>0.1389768820767651</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02492875677379667</v>
+        <v>0.01728252180193926</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>62</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1186319168.591034</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1068535549.955947</v>
+        <v>1403878854.294713</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1559145069539215</v>
+        <v>0.1807380097095302</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03929860689948583</v>
+        <v>0.03634096417450236</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>534267796.8965598</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3487620200.221056</v>
+        <v>2816857045.508135</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1205342317734529</v>
+        <v>0.1743938746831885</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02578083940863328</v>
+        <v>0.0316946089359272</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>197</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1743810178.76266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2927705801.682655</v>
+        <v>2484956038.34436</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1133173545876813</v>
+        <v>0.1095750684183633</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03919131729714407</v>
+        <v>0.03595493533976785</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>169</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1463852944.267048</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1887755880.770134</v>
+        <v>1937362149.795632</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1300754841991374</v>
+        <v>0.1244103581317392</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04274833790298191</v>
+        <v>0.05383795205467403</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>943877990.0925847</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2068828352.495151</v>
+        <v>1363321275.875505</v>
       </c>
       <c r="F91" t="n">
-        <v>0.183561060855454</v>
+        <v>0.1670594697107166</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05530196903675531</v>
+        <v>0.03998308501767869</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1034414139.38777</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2351154980.524201</v>
+        <v>1864433782.379382</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08828336596815775</v>
+        <v>0.08915451789317022</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04595830361659396</v>
+        <v>0.04528505959771818</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>135</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1175577462.980536</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4180540514.764154</v>
+        <v>3300585138.856113</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08956252958549012</v>
+        <v>0.1392201655504032</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04506514624284654</v>
+        <v>0.04588736648690324</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>150</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2090270246.35672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2312127525.161396</v>
+        <v>2223466178.172556</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1459479914657664</v>
+        <v>0.1071055163442625</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03174568076406649</v>
+        <v>0.03246179467165022</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1156063801.639738</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2334395471.036578</v>
+        <v>2946720491.241327</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1127301619844845</v>
+        <v>0.1062106803176438</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03325806207234189</v>
+        <v>0.03503940170975254</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>121</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1167197783.71171</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1665634014.20364</v>
+        <v>1586405847.643859</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1258970430793455</v>
+        <v>0.09016961342122203</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0346288643542554</v>
+        <v>0.03220627708216384</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>832817029.7978678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4602545155.172834</v>
+        <v>5339644620.873869</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1457469194221854</v>
+        <v>0.124066439674118</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02024010367735021</v>
+        <v>0.02552952467716533</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>160</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2301272682.441884</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3945403092.54976</v>
+        <v>3207315919.298664</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1067429156236842</v>
+        <v>0.09972017037782578</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02951927436909383</v>
+        <v>0.03247443457670251</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>137</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1972701595.086658</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2237329773.081132</v>
+        <v>3244652126.536253</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09756913714419206</v>
+        <v>0.09740599375421068</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03260906080562036</v>
+        <v>0.02642740961517281</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>156</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1118664817.265675</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4296144483.992711</v>
+        <v>4672678522.966045</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1624965203770706</v>
+        <v>0.1513084771662001</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02356996705827904</v>
+        <v>0.01795253854989856</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>151</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2148072336.33563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3014478551.075192</v>
+        <v>3554779234.930674</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1922366416800884</v>
+        <v>0.1713111936629549</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04857549245844285</v>
+        <v>0.04154082057552318</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>200</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1507239366.574711</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_497.xlsx
+++ b/output/fit_clients/fit_round_497.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2195553827.524538</v>
+        <v>1972639471.208254</v>
       </c>
       <c r="F2" t="n">
-        <v>0.113852982745966</v>
+        <v>0.1097696011547643</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03836545227858297</v>
+        <v>0.04479434483659993</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1618718717.044153</v>
+        <v>2402539311.986882</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1531615840007406</v>
+        <v>0.1748497055795278</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03515038107012245</v>
+        <v>0.04404306619209928</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3234633995.619563</v>
+        <v>3491508581.531789</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1393464719690786</v>
+        <v>0.1184964209049716</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03112848068209889</v>
+        <v>0.03697136462803384</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3490969219.210804</v>
+        <v>3722271104.095807</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1078476230803108</v>
+        <v>0.09368995935415317</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03834185022573632</v>
+        <v>0.04611156520281028</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2540426791.27579</v>
+        <v>2265228345.884212</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09540980448534299</v>
+        <v>0.09856466033649726</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04837138183854061</v>
+        <v>0.0369332454917535</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1965577398.966325</v>
+        <v>2978233693.716362</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08776513295302008</v>
+        <v>0.10118243740212</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04780356350312525</v>
+        <v>0.03655950757618285</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3203409258.719528</v>
+        <v>3811630514.819819</v>
       </c>
       <c r="F8" t="n">
-        <v>0.137417047985907</v>
+        <v>0.171714850372593</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0318229280189886</v>
+        <v>0.02055189802124853</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2011969507.463474</v>
+        <v>2308763671.748169</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1400021752599311</v>
+        <v>0.1787081260480502</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02413306077806945</v>
+        <v>0.02356954001331273</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3928616444.356991</v>
+        <v>5589682559.447651</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1553220894325633</v>
+        <v>0.2080995257509135</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05284129753855742</v>
+        <v>0.05399672073864234</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3947919887.337723</v>
+        <v>4216974854.390415</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1326445358859603</v>
+        <v>0.1780487805895643</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03642412318875434</v>
+        <v>0.03478019996704433</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3016698832.039599</v>
+        <v>2298238777.699188</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1732436681258191</v>
+        <v>0.1361839096782573</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03500957772700697</v>
+        <v>0.05142836343902647</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5150028124.356016</v>
+        <v>5135907713.142351</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09546550293219529</v>
+        <v>0.07035085976662009</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02488710315133849</v>
+        <v>0.02496038468460163</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2718704089.221778</v>
+        <v>3510250629.959879</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1479436527319113</v>
+        <v>0.1178065943407951</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03824560776090792</v>
+        <v>0.03766685658240969</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1733819985.105773</v>
+        <v>1834127838.804205</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09616472195152835</v>
+        <v>0.07426491116194388</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04683268875354206</v>
+        <v>0.03697902727304685</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1872410483.672498</v>
+        <v>2014811083.102906</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07564094206530007</v>
+        <v>0.0813599560288774</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04378338704250116</v>
+        <v>0.04277629658067553</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3953645305.639338</v>
+        <v>3476457236.063003</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1633044513800059</v>
+        <v>0.1233601224874296</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04262206271767698</v>
+        <v>0.05189674555172429</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3628965033.341387</v>
+        <v>3425449912.077248</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1362048582440649</v>
+        <v>0.1260211117022332</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02690358432814386</v>
+        <v>0.02720261649045329</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>964421831.3858709</v>
+        <v>857626830.043497</v>
       </c>
       <c r="F19" t="n">
-        <v>0.152654123220813</v>
+        <v>0.1328016291571441</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02018296455119561</v>
+        <v>0.02019001998468407</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2277767702.532604</v>
+        <v>2474868404.953882</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1095139577764951</v>
+        <v>0.1345720420638947</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02642848051170172</v>
+        <v>0.02843822434116842</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2197804924.563688</v>
+        <v>2587049635.900046</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0810515119520718</v>
+        <v>0.06398088319704459</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03203833209616946</v>
+        <v>0.02948887142238199</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3284152578.36587</v>
+        <v>3310574916.646311</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09525755076966518</v>
+        <v>0.09391891834878174</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04881866303656449</v>
+        <v>0.03485987525998641</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1025367509.676256</v>
+        <v>1114217066.893387</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1697455332543774</v>
+        <v>0.1621347114199694</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04188992812376743</v>
+        <v>0.04197220012395645</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3591308283.73749</v>
+        <v>2584836835.824224</v>
       </c>
       <c r="F24" t="n">
-        <v>0.123530176455948</v>
+        <v>0.147016970971997</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03538469582330341</v>
+        <v>0.03210565185815027</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>933934437.0615462</v>
+        <v>992467397.6884991</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1048008098513413</v>
+        <v>0.09299917509346572</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02027447169583976</v>
+        <v>0.02355818258157743</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1140320535.613219</v>
+        <v>1312519509.105766</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09662850633338549</v>
+        <v>0.1177642017452384</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02842083020477485</v>
+        <v>0.02842719516483131</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2957247108.336977</v>
+        <v>3253746470.050367</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1559505473519678</v>
+        <v>0.142237861602582</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02102969387634747</v>
+        <v>0.01718846366938951</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3613915899.323526</v>
+        <v>3515519334.249176</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1035219675462954</v>
+        <v>0.1020545873416646</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03033993014695401</v>
+        <v>0.03612931554104565</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3573012599.202862</v>
+        <v>4471979213.194118</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09938988378540163</v>
+        <v>0.1094441719517384</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03641375093372422</v>
+        <v>0.0283555851243412</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2042434502.170861</v>
+        <v>1570869574.336984</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1216437635755325</v>
+        <v>0.1330764662867785</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0286636001350105</v>
+        <v>0.03935897934704947</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1232430219.875613</v>
+        <v>1036656890.667207</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1013312372652107</v>
+        <v>0.1099698339142769</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03503325526927079</v>
+        <v>0.05218755691689945</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1870752332.102196</v>
+        <v>1453051413.609956</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08411354916723895</v>
+        <v>0.08778527059300992</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02974486132204115</v>
+        <v>0.03166190021741275</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1919269513.460143</v>
+        <v>1917908932.252436</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1664331210648245</v>
+        <v>0.1837825745418853</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04627714547392134</v>
+        <v>0.03681028206541607</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1407134882.910347</v>
+        <v>1299255074.955333</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1191104504475521</v>
+        <v>0.1215380176514437</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02570806001801275</v>
+        <v>0.02577160883674545</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>884188543.408322</v>
+        <v>890395583.7368677</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08954386174652858</v>
+        <v>0.08563163400387309</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03166881244026395</v>
+        <v>0.03938831044727683</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2796837921.612008</v>
+        <v>3092962278.163584</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1627381060862502</v>
+        <v>0.1631127893236664</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02726588325352849</v>
+        <v>0.02093754587241501</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2535254917.948616</v>
+        <v>2391982682.879641</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1017069096438675</v>
+        <v>0.08824135598871713</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03235446414483276</v>
+        <v>0.03698398501835102</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1511777418.005048</v>
+        <v>1496382983.769867</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1137161902738937</v>
+        <v>0.1079146345483992</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02675639668329844</v>
+        <v>0.03187500711261907</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1628439617.084935</v>
+        <v>2115399509.607184</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1640653514912155</v>
+        <v>0.1241630164461606</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03268129509433253</v>
+        <v>0.02479339719245309</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1587732929.932485</v>
+        <v>1359912646.49107</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1238146357819504</v>
+        <v>0.1510943738527584</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05909810541414124</v>
+        <v>0.04993273599015428</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1887656199.773337</v>
+        <v>2906079674.020453</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1242734539749991</v>
+        <v>0.1163287627854539</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04148898555401277</v>
+        <v>0.03525123439829241</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3092035457.663401</v>
+        <v>3195378536.654204</v>
       </c>
       <c r="F42" t="n">
-        <v>0.127050663123245</v>
+        <v>0.1213526698895427</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03108289216734023</v>
+        <v>0.04558961081870044</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2392539007.251516</v>
+        <v>2938020060.129817</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1700487246583017</v>
+        <v>0.1774431482054671</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02055094772607026</v>
+        <v>0.0257233848812605</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2368321049.620739</v>
+        <v>2037596480.407051</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0853352630873772</v>
+        <v>0.07002269387506256</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02444417454317325</v>
+        <v>0.02668046944844648</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2090864364.756813</v>
+        <v>2032692756.412869</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1187566653374699</v>
+        <v>0.1779343749042533</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03741275593957013</v>
+        <v>0.05062702356186881</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5510603369.521182</v>
+        <v>5103047685.119496</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1083086001243689</v>
+        <v>0.155040411794743</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04003089680470981</v>
+        <v>0.04352226934814973</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4481546986.10521</v>
+        <v>4499217889.404761</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1615139704673806</v>
+        <v>0.1322846365209053</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0520068503599618</v>
+        <v>0.03828698781683301</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4326266668.415638</v>
+        <v>4511753229.667183</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07787886943744292</v>
+        <v>0.0704078959601363</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03265921065895784</v>
+        <v>0.03175541236598814</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1683171377.986603</v>
+        <v>1238531517.909411</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1217324086778997</v>
+        <v>0.1628138174188418</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03480561012502287</v>
+        <v>0.03473754912320407</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2804313690.336749</v>
+        <v>2927089606.55778</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1583639952858215</v>
+        <v>0.1551029226682932</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03969981306708613</v>
+        <v>0.04130035370866128</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1437083107.733341</v>
+        <v>1456417924.656909</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1485152264761175</v>
+        <v>0.1755396043205223</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05011225455928659</v>
+        <v>0.05085247018956497</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3370215438.120205</v>
+        <v>5262196992.792005</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09745204131741572</v>
+        <v>0.08795216352845106</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05479263233956886</v>
+        <v>0.05836829491142775</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2371850188.617525</v>
+        <v>3370750713.514789</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1705933415005335</v>
+        <v>0.1438667519721309</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03508272296154583</v>
+        <v>0.02933323503471609</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3879695804.781106</v>
+        <v>3698928529.61879</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1117958331261693</v>
+        <v>0.1128395441851457</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04595811457465781</v>
+        <v>0.05170640090701054</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3370054321.420238</v>
+        <v>4704646893.985762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2151767709773676</v>
+        <v>0.1945696428786847</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02667051977485881</v>
+        <v>0.02900139469703042</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1492520961.450406</v>
+        <v>1360227180.906761</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1521977007130431</v>
+        <v>0.1018815283041389</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03518763802279733</v>
+        <v>0.03931992518725442</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4076002611.988799</v>
+        <v>3073232338.449309</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1746529540562733</v>
+        <v>0.1787724795625179</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01814843833471898</v>
+        <v>0.02130825630489653</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1293262864.429987</v>
+        <v>1385643479.383015</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1522484514899766</v>
+        <v>0.190637541608092</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02713716693512348</v>
+        <v>0.03007599906731929</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4608742357.46541</v>
+        <v>3489911859.24976</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1106870799461277</v>
+        <v>0.1086767494202149</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04732232000702395</v>
+        <v>0.04362769226094092</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2872728496.646565</v>
+        <v>2876786174.036924</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1602728515232993</v>
+        <v>0.1300072604167012</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02493643015524435</v>
+        <v>0.02209382624286891</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2570177088.9097</v>
+        <v>2600428647.555523</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1651071240573779</v>
+        <v>0.1128030946389937</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03123926119527047</v>
+        <v>0.03129365560570064</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1742454713.783802</v>
+        <v>1478626248.619878</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1784621430240029</v>
+        <v>0.1742719948745707</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04969328673031832</v>
+        <v>0.03885840755505577</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4138813926.304981</v>
+        <v>5252627033.863175</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07248282654940121</v>
+        <v>0.1064560676942885</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03911602367930746</v>
+        <v>0.03709836059352677</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4464747738.828613</v>
+        <v>4004521066.626164</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1477320202612329</v>
+        <v>0.134148796512625</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02210468238161461</v>
+        <v>0.03039041327599543</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3745833515.481311</v>
+        <v>3955057280.028628</v>
       </c>
       <c r="F65" t="n">
-        <v>0.151750507573189</v>
+        <v>0.1721386112092257</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02775884522468297</v>
+        <v>0.02907542698990287</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3699548268.10611</v>
+        <v>4404783764.468657</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1364365512182776</v>
+        <v>0.1487672410848113</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04870379908604993</v>
+        <v>0.03348544759716165</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2176021756.517337</v>
+        <v>2490497649.389438</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1000093211527567</v>
+        <v>0.06337511461559892</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03444203969073936</v>
+        <v>0.04829074182078328</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4996032080.185911</v>
+        <v>4236615752.021654</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1600703697644953</v>
+        <v>0.1181534029063892</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04621581830758397</v>
+        <v>0.03315741555382785</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2220202886.067044</v>
+        <v>1732519843.130557</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1114304306398318</v>
+        <v>0.1507076719956267</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04810395603109369</v>
+        <v>0.04538312465241152</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3347182616.129213</v>
+        <v>2290105764.780538</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09910012360938299</v>
+        <v>0.0979802053055652</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04127144389221695</v>
+        <v>0.04196277047567293</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3579340359.52082</v>
+        <v>3964901710.227753</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1494715949618132</v>
+        <v>0.1532855308498877</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0244324444254743</v>
+        <v>0.02056449225348806</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1855690205.278564</v>
+        <v>1481656493.989556</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09128253390308876</v>
+        <v>0.06748799062155271</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0492335205040537</v>
+        <v>0.04415569554867162</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3376736287.781952</v>
+        <v>2400444158.079117</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09899753528372929</v>
+        <v>0.1033068857301652</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04843993816012787</v>
+        <v>0.03920553299838057</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3422003898.385353</v>
+        <v>3719844883.019576</v>
       </c>
       <c r="F74" t="n">
-        <v>0.137360061601224</v>
+        <v>0.1212751573151924</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02344499435774905</v>
+        <v>0.03408926691988044</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1526291506.194556</v>
+        <v>2428255032.043552</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1324086468495741</v>
+        <v>0.1087889133658736</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03033728826714856</v>
+        <v>0.02532206819216841</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3464016670.697019</v>
+        <v>4526636004.962097</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07606990156275169</v>
+        <v>0.08188449502736894</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03084548628404667</v>
+        <v>0.0317744260634011</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1500880196.666185</v>
+        <v>2159332506.446588</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1193629870524466</v>
+        <v>0.1793779984875724</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02921447650370738</v>
+        <v>0.02728216078244049</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3641560018.054965</v>
+        <v>3601563365.667877</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09362605849156128</v>
+        <v>0.1359163509128334</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04567441541897319</v>
+        <v>0.03484771327558482</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1327521030.682774</v>
+        <v>1162887324.991833</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1445407651029372</v>
+        <v>0.1742296105501493</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03641835865107367</v>
+        <v>0.0266375697949613</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3396445457.194995</v>
+        <v>4890093355.706953</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1050846275824966</v>
+        <v>0.09610549427210896</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02931726114745857</v>
+        <v>0.03719481988659178</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3664245559.885022</v>
+        <v>4845671151.900454</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1281901383953244</v>
+        <v>0.1072346892798843</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02167371383168787</v>
+        <v>0.02410746205163012</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5006042748.527499</v>
+        <v>3624981899.054965</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2053613890250125</v>
+        <v>0.1324659848912541</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01795019885048997</v>
+        <v>0.02520432792394829</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1784980234.449096</v>
+        <v>1546918349.645283</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09933296215261564</v>
+        <v>0.1426341394880109</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04236098559974735</v>
+        <v>0.04047736009841057</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2274732907.991568</v>
+        <v>2152159350.601244</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1059129652708367</v>
+        <v>0.1105757070210906</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05085053196798239</v>
+        <v>0.05234977549341133</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3477425673.232791</v>
+        <v>2321952911.82491</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1820301834851754</v>
+        <v>0.1803532124191239</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04137889261206341</v>
+        <v>0.05248626148872997</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2529857495.048381</v>
+        <v>2663755609.753376</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1389768820767651</v>
+        <v>0.1535115575051951</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01728252180193926</v>
+        <v>0.0180656154229514</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1403878854.294713</v>
+        <v>1434222587.186972</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1807380097095302</v>
+        <v>0.1405868239654419</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03634096417450236</v>
+        <v>0.027093032805751</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2816857045.508135</v>
+        <v>3548349819.093875</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1743938746831885</v>
+        <v>0.1447951240699316</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0316946089359272</v>
+        <v>0.03411963992677811</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2484956038.34436</v>
+        <v>2413976114.759627</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1095750684183633</v>
+        <v>0.1034327647330997</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03595493533976785</v>
+        <v>0.03079826793270933</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1937362149.795632</v>
+        <v>1443054188.721832</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1244103581317392</v>
+        <v>0.0935302000586726</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05383795205467403</v>
+        <v>0.03937986512508065</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1363321275.875505</v>
+        <v>2089254582.076007</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1670594697107166</v>
+        <v>0.1183234562568649</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03998308501767869</v>
+        <v>0.06065328545843472</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1864433782.379382</v>
+        <v>2152533996.392299</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08915451789317022</v>
+        <v>0.09137679471814492</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04528505959771818</v>
+        <v>0.04627366453025607</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3300585138.856113</v>
+        <v>3131489324.362385</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1392201655504032</v>
+        <v>0.1022868443148758</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04588736648690324</v>
+        <v>0.04448168044524455</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2223466178.172556</v>
+        <v>1989093521.634355</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1071055163442625</v>
+        <v>0.1462968433448829</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03246179467165022</v>
+        <v>0.0397649298820839</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2946720491.241327</v>
+        <v>3013353384.49863</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1062106803176438</v>
+        <v>0.1072284447393537</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03503940170975254</v>
+        <v>0.04405156302548609</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1586405847.643859</v>
+        <v>1671764932.000087</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09016961342122203</v>
+        <v>0.1306374224953933</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03220627708216384</v>
+        <v>0.02998805760717576</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5339644620.873869</v>
+        <v>3235000715.173354</v>
       </c>
       <c r="F97" t="n">
-        <v>0.124066439674118</v>
+        <v>0.1080801897266269</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02552952467716533</v>
+        <v>0.02830092105476036</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3207315919.298664</v>
+        <v>3546441179.551737</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09972017037782578</v>
+        <v>0.1227772016469244</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03247443457670251</v>
+        <v>0.01976971260554324</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3244652126.536253</v>
+        <v>3097194869.029088</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09740599375421068</v>
+        <v>0.133812417498422</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02642740961517281</v>
+        <v>0.03137627742545342</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4672678522.966045</v>
+        <v>3498324787.35841</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1513084771662001</v>
+        <v>0.1771426644487986</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01795253854989856</v>
+        <v>0.02595424503692986</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3554779234.930674</v>
+        <v>3415225613.414637</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1713111936629549</v>
+        <v>0.1343793129155084</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04154082057552318</v>
+        <v>0.04607031344447747</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_497.xlsx
+++ b/output/fit_clients/fit_round_497.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1972639471.208254</v>
+        <v>1536741692.046184</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1097696011547643</v>
+        <v>0.1004333255067697</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04479434483659993</v>
+        <v>0.04417465566517754</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2402539311.986882</v>
+        <v>1716666563.468488</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1748497055795278</v>
+        <v>0.1178895550938341</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04404306619209928</v>
+        <v>0.04837002381602127</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3491508581.531789</v>
+        <v>4438552166.863869</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1184964209049716</v>
+        <v>0.1212436582584406</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03697136462803384</v>
+        <v>0.02508191470787807</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>250</v>
+      </c>
+      <c r="J4" t="n">
+        <v>497</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3722271104.095807</v>
+        <v>3664394772.249094</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09368995935415317</v>
+        <v>0.09529123453351677</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04611156520281028</v>
+        <v>0.04156273828351244</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>210</v>
+      </c>
+      <c r="J5" t="n">
+        <v>494</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2265228345.884212</v>
+        <v>1821526124.172974</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09856466033649726</v>
+        <v>0.1185550032525936</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0369332454917535</v>
+        <v>0.03454254100243348</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2978233693.716362</v>
+        <v>2165148397.542863</v>
       </c>
       <c r="F7" t="n">
-        <v>0.10118243740212</v>
+        <v>0.07125292154133563</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03655950757618285</v>
+        <v>0.03922445769914687</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3811630514.819819</v>
+        <v>3821223850.503755</v>
       </c>
       <c r="F8" t="n">
-        <v>0.171714850372593</v>
+        <v>0.1346900670836839</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02055189802124853</v>
+        <v>0.0252076379842447</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>142</v>
+      </c>
+      <c r="J8" t="n">
+        <v>497</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2308763671.748169</v>
+        <v>1592274516.78348</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1787081260480502</v>
+        <v>0.126365479107519</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02356954001331273</v>
+        <v>0.0240398940463889</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5589682559.447651</v>
+        <v>5799617903.232555</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2080995257509135</v>
+        <v>0.1892758260038712</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05399672073864234</v>
+        <v>0.05182788379075177</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>374</v>
+      </c>
+      <c r="J10" t="n">
+        <v>497</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +810,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4216974854.390415</v>
+        <v>3687761860.621817</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1780487805895643</v>
+        <v>0.1443865072300801</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03478019996704433</v>
+        <v>0.03941241011499073</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>207</v>
+      </c>
+      <c r="J11" t="n">
+        <v>494</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +845,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2298238777.699188</v>
+        <v>2048854627.697586</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1361839096782573</v>
+        <v>0.1290574823888611</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05142836343902647</v>
+        <v>0.05020861783349638</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +880,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5135907713.142351</v>
+        <v>4898939367.462005</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07035085976662009</v>
+        <v>0.0962300367140842</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02496038468460163</v>
+        <v>0.02980232757843734</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>256</v>
+      </c>
+      <c r="J13" t="n">
+        <v>497</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +915,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3510250629.959879</v>
+        <v>3786557603.347688</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1178065943407951</v>
+        <v>0.1707439588084832</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03766685658240969</v>
+        <v>0.02916767851835694</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>116</v>
+      </c>
+      <c r="J14" t="n">
+        <v>497</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +950,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1834127838.804205</v>
+        <v>1663837104.167793</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07426491116194388</v>
+        <v>0.09302232731861321</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03697902727304685</v>
+        <v>0.03533322309946928</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +985,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2014811083.102906</v>
+        <v>2007249264.709251</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0813599560288774</v>
+        <v>0.08876802816844721</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04277629658067553</v>
+        <v>0.03535520626332216</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1020,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3476457236.063003</v>
+        <v>3391337059.499596</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1233601224874296</v>
+        <v>0.1668731070397509</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05189674555172429</v>
+        <v>0.03495450786817439</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>242</v>
+      </c>
+      <c r="J17" t="n">
+        <v>495</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1061,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3425449912.077248</v>
+        <v>3728782468.256216</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1260211117022332</v>
+        <v>0.1739024607870309</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02720261649045329</v>
+        <v>0.02305515742805493</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>133</v>
+      </c>
+      <c r="J18" t="n">
+        <v>497</v>
+      </c>
+      <c r="K18" t="n">
+        <v>37.51866181780468</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1092,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>857626830.043497</v>
+        <v>1293939421.99013</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1328016291571441</v>
+        <v>0.16889863309101</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02019001998468407</v>
+        <v>0.02698862253042819</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1127,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2474868404.953882</v>
+        <v>2377525877.125913</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1345720420638947</v>
+        <v>0.1213207584752549</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02843822434116842</v>
+        <v>0.02690819963530437</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1168,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2587049635.900046</v>
+        <v>2443936140.102757</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06398088319704459</v>
+        <v>0.07830573184381924</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02948887142238199</v>
+        <v>0.04540313711798436</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1197,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3310574916.646311</v>
+        <v>2724997159.981301</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09391891834878174</v>
+        <v>0.1014317747547423</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03485987525998641</v>
+        <v>0.03453209325408141</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>146</v>
+      </c>
+      <c r="J22" t="n">
+        <v>493</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1232,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1114217066.893387</v>
+        <v>1162563508.531271</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1621347114199694</v>
+        <v>0.1821986483692273</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04197220012395645</v>
+        <v>0.03351833993974725</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1267,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2584836835.824224</v>
+        <v>3235861427.485687</v>
       </c>
       <c r="F24" t="n">
-        <v>0.147016970971997</v>
+        <v>0.1263517252822486</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03210565185815027</v>
+        <v>0.03425424483297992</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>157</v>
+      </c>
+      <c r="J24" t="n">
+        <v>496</v>
+      </c>
+      <c r="K24" t="n">
+        <v>27.29026663497705</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>992467397.6884991</v>
+        <v>1302683441.492432</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09299917509346572</v>
+        <v>0.07559421398631182</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02355818258157743</v>
+        <v>0.02323906476172588</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1312519509.105766</v>
+        <v>1036873570.201387</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1177642017452384</v>
+        <v>0.09764689913023929</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02842719516483131</v>
+        <v>0.02757138587365727</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1380,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3253746470.050367</v>
+        <v>4266789804.168026</v>
       </c>
       <c r="F27" t="n">
-        <v>0.142237861602582</v>
+        <v>0.09705667992494842</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01718846366938951</v>
+        <v>0.02535107990802737</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>222</v>
+      </c>
+      <c r="J27" t="n">
+        <v>497</v>
+      </c>
+      <c r="K27" t="n">
+        <v>28.90203189076749</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3515519334.249176</v>
+        <v>3368092669.293016</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1020545873416646</v>
+        <v>0.1503945333510332</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03612931554104565</v>
+        <v>0.04024094333386343</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>122</v>
+      </c>
+      <c r="J28" t="n">
+        <v>491</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1452,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4471979213.194118</v>
+        <v>5589295794.084815</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1094441719517384</v>
+        <v>0.09626105044826998</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0283555851243412</v>
+        <v>0.03388014631208408</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>389</v>
+      </c>
+      <c r="J29" t="n">
+        <v>497</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1487,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1570869574.336984</v>
+        <v>1674515160.173013</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1330764662867785</v>
+        <v>0.1068689469113901</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03935897934704947</v>
+        <v>0.02557634845293387</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1516,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1036656890.667207</v>
+        <v>1224672655.233951</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1099698339142769</v>
+        <v>0.08343743108029665</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05218755691689945</v>
+        <v>0.04470789728839804</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1551,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1453051413.609956</v>
+        <v>1554682569.906988</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08778527059300992</v>
+        <v>0.08196275670753987</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03166190021741275</v>
+        <v>0.02758188065826147</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1592,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1917908932.252436</v>
+        <v>1928693499.925654</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1837825745418853</v>
+        <v>0.1766238352476282</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03681028206541607</v>
+        <v>0.04235409655669485</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1621,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1299255074.955333</v>
+        <v>1180213815.631263</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1215380176514437</v>
+        <v>0.07573862059929071</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02577160883674545</v>
+        <v>0.0195559999971083</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1662,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>890395583.7368677</v>
+        <v>1296232882.29642</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08563163400387309</v>
+        <v>0.07324298957846058</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03938831044727683</v>
+        <v>0.03261954526051706</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1691,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3092962278.163584</v>
+        <v>2057945177.997347</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1631127893236664</v>
+        <v>0.1293702573871306</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02093754587241501</v>
+        <v>0.02896248626887194</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1732,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2391982682.879641</v>
+        <v>2304491793.325824</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08824135598871713</v>
+        <v>0.09205544542849874</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03698398501835102</v>
+        <v>0.03392344424633172</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1761,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1496382983.769867</v>
+        <v>1913396811.156513</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1079146345483992</v>
+        <v>0.09280385482990927</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03187500711261907</v>
+        <v>0.03888159470296591</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2115399509.607184</v>
+        <v>1761278715.271657</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1241630164461606</v>
+        <v>0.1408092044838124</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02479339719245309</v>
+        <v>0.02033195984127154</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1359912646.49107</v>
+        <v>1341859727.643147</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1510943738527584</v>
+        <v>0.1323169565504386</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04993273599015428</v>
+        <v>0.03884696950411712</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1866,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2906079674.020453</v>
+        <v>2712096305.016408</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1163287627854539</v>
+        <v>0.1181366280430793</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03525123439829241</v>
+        <v>0.04359737738308447</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1907,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3195378536.654204</v>
+        <v>2870370554.131327</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1213526698895427</v>
+        <v>0.08648156345209648</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04558961081870044</v>
+        <v>0.04617424335686755</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>211</v>
+      </c>
+      <c r="J42" t="n">
+        <v>496</v>
+      </c>
+      <c r="K42" t="n">
+        <v>21.59095605602143</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2938020060.129817</v>
+        <v>2970425038.475187</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1774431482054671</v>
+        <v>0.1948843021373462</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0257233848812605</v>
+        <v>0.02408578024684006</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1979,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2037596480.407051</v>
+        <v>1630838463.277548</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07002269387506256</v>
+        <v>0.08660500597793756</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02668046944844648</v>
+        <v>0.02607017075444249</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2032692756.412869</v>
+        <v>1798528916.723846</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1779343749042533</v>
+        <v>0.1817673310538188</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05062702356186881</v>
+        <v>0.04151452605910291</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2043,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5103047685.119496</v>
+        <v>4525702041.626372</v>
       </c>
       <c r="F46" t="n">
-        <v>0.155040411794743</v>
+        <v>0.1187365650544617</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04352226934814973</v>
+        <v>0.05463665404035833</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>292</v>
+      </c>
+      <c r="J46" t="n">
+        <v>496</v>
+      </c>
+      <c r="K46" t="n">
+        <v>27.80241921255683</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4499217889.404761</v>
+        <v>3322117044.878296</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1322846365209053</v>
+        <v>0.1314607711368287</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03828698781683301</v>
+        <v>0.03594001416296348</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>226</v>
+      </c>
+      <c r="J47" t="n">
+        <v>496</v>
+      </c>
+      <c r="K47" t="n">
+        <v>21.57456237463329</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4511753229.667183</v>
+        <v>3860440469.171467</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0704078959601363</v>
+        <v>0.1036252429888345</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03175541236598814</v>
+        <v>0.02663098487893006</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>248</v>
+      </c>
+      <c r="J48" t="n">
+        <v>497</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1238531517.909411</v>
+        <v>1405677484.232481</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1628138174188418</v>
+        <v>0.1814538881536246</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03473754912320407</v>
+        <v>0.04008372125187874</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2927089606.55778</v>
+        <v>2790065289.48314</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1551029226682932</v>
+        <v>0.1182526874448667</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04130035370866128</v>
+        <v>0.05118461623126997</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>179</v>
+      </c>
+      <c r="J50" t="n">
+        <v>494</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1456417924.656909</v>
+        <v>1471332869.982535</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1755396043205223</v>
+        <v>0.145849902380588</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05085247018956497</v>
+        <v>0.05443317060320953</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2263,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5262196992.792005</v>
+        <v>4126246239.939928</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08795216352845106</v>
+        <v>0.09281406903629617</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05836829491142775</v>
+        <v>0.04277276905505184</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>276</v>
+      </c>
+      <c r="J52" t="n">
+        <v>497</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2292,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3370750713.514789</v>
+        <v>2424494673.3978</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1438667519721309</v>
+        <v>0.1822557474682489</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02933323503471609</v>
+        <v>0.0270451971227077</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>80</v>
+      </c>
+      <c r="J53" t="n">
+        <v>496</v>
+      </c>
+      <c r="K53" t="n">
+        <v>18.71071702911355</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3698928529.61879</v>
+        <v>4170934109.221755</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1128395441851457</v>
+        <v>0.1293109762669422</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05170640090701054</v>
+        <v>0.04956876896156352</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>261</v>
+      </c>
+      <c r="J54" t="n">
+        <v>497</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4704646893.985762</v>
+        <v>3820606862.571207</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1945696428786847</v>
+        <v>0.1924691996638979</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02900139469703042</v>
+        <v>0.03237098973878361</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>246</v>
+      </c>
+      <c r="J55" t="n">
+        <v>496</v>
+      </c>
+      <c r="K55" t="n">
+        <v>26.20000295251042</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1360227180.906761</v>
+        <v>1378488335.420242</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1018815283041389</v>
+        <v>0.1573860265367272</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03931992518725442</v>
+        <v>0.0441482285335664</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3073232338.449309</v>
+        <v>4498260262.138528</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1787724795625179</v>
+        <v>0.1306824426723425</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02130825630489653</v>
+        <v>0.01836602903314065</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>212</v>
+      </c>
+      <c r="J57" t="n">
+        <v>497</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1385643479.383015</v>
+        <v>1685458234.637238</v>
       </c>
       <c r="F58" t="n">
-        <v>0.190637541608092</v>
+        <v>0.1824111901529818</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03007599906731929</v>
+        <v>0.02638404311435507</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2506,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3489911859.24976</v>
+        <v>4396107108.449684</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1086767494202149</v>
+        <v>0.08679153192462656</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04362769226094092</v>
+        <v>0.03047541999636533</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>244</v>
+      </c>
+      <c r="J59" t="n">
+        <v>497</v>
+      </c>
+      <c r="K59" t="n">
+        <v>29.45075397364651</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2876786174.036924</v>
+        <v>2663122830.111717</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1300072604167012</v>
+        <v>0.1313126652193099</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02209382624286891</v>
+        <v>0.02727169483641404</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>101</v>
+      </c>
+      <c r="J60" t="n">
+        <v>491</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2600428647.555523</v>
+        <v>3394836615.170434</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1128030946389937</v>
+        <v>0.127748025430805</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03129365560570064</v>
+        <v>0.0235555389554768</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1478626248.619878</v>
+        <v>1769237402.043632</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1742719948745707</v>
+        <v>0.1384170973370064</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03885840755505577</v>
+        <v>0.04761293505580753</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5252627033.863175</v>
+        <v>5254310847.551718</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1064560676942885</v>
+        <v>0.07711105172252231</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03709836059352677</v>
+        <v>0.02936033585223334</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>248</v>
+      </c>
+      <c r="J63" t="n">
+        <v>496</v>
+      </c>
+      <c r="K63" t="n">
+        <v>27.0158743038584</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4004521066.626164</v>
+        <v>4112793524.095441</v>
       </c>
       <c r="F64" t="n">
-        <v>0.134148796512625</v>
+        <v>0.1491545231515386</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03039041327599543</v>
+        <v>0.02435754135336078</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>247</v>
+      </c>
+      <c r="J64" t="n">
+        <v>497</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2720,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3955057280.028628</v>
+        <v>5921730952.193369</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1721386112092257</v>
+        <v>0.1569995149952686</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02907542698990287</v>
+        <v>0.02916757465247384</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>346</v>
+      </c>
+      <c r="J65" t="n">
+        <v>497</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2755,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4404783764.468657</v>
+        <v>3988197187.199875</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1487672410848113</v>
+        <v>0.1166707033508317</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03348544759716165</v>
+        <v>0.04255938987181689</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>246</v>
+      </c>
+      <c r="J66" t="n">
+        <v>496</v>
+      </c>
+      <c r="K66" t="n">
+        <v>28.17833747163623</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2792,31 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2490497649.389438</v>
+        <v>2244418959.70452</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06337511461559892</v>
+        <v>0.07987952320615553</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04829074182078328</v>
+        <v>0.05072881978183819</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>18</v>
+      </c>
+      <c r="J67" t="n">
+        <v>496</v>
+      </c>
+      <c r="K67" t="n">
+        <v>24.4202060630965</v>
       </c>
     </row>
     <row r="68">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4236615752.021654</v>
+        <v>5974604803.54732</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1181534029063892</v>
+        <v>0.1213979795523923</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03315741555382785</v>
+        <v>0.04286301480083284</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>269</v>
+      </c>
+      <c r="J68" t="n">
+        <v>497</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1732519843.130557</v>
+        <v>1945785031.411149</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1507076719956267</v>
+        <v>0.1552612375170905</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04538312465241152</v>
+        <v>0.04608152802831228</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2290105764.780538</v>
+        <v>3633390894.148172</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0979802053055652</v>
+        <v>0.06627085961681914</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04196277047567293</v>
+        <v>0.03612374712311605</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>77</v>
+      </c>
+      <c r="J70" t="n">
+        <v>493</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3964901710.227753</v>
+        <v>3958656510.344434</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1532855308498877</v>
+        <v>0.1254800114585668</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02056449225348806</v>
+        <v>0.02917071915861567</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>333</v>
+      </c>
+      <c r="J71" t="n">
+        <v>496</v>
+      </c>
+      <c r="K71" t="n">
+        <v>26.33422289365037</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1481656493.989556</v>
+        <v>1763311331.391118</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06748799062155271</v>
+        <v>0.07839377137623248</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04415569554867162</v>
+        <v>0.03409894709669077</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2400444158.079117</v>
+        <v>2376841988.207329</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1033068857301652</v>
+        <v>0.07334199806990158</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03920553299838057</v>
+        <v>0.05077085758445071</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>48</v>
+      </c>
+      <c r="J73" t="n">
+        <v>491</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3719844883.019576</v>
+        <v>3110211161.066493</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1212751573151924</v>
+        <v>0.130677802854112</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03408926691988044</v>
+        <v>0.02747622280711069</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>146</v>
+      </c>
+      <c r="J74" t="n">
+        <v>495</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2428255032.043552</v>
+        <v>1851764655.363607</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1087889133658736</v>
+        <v>0.1624219540624445</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02532206819216841</v>
+        <v>0.03025834808159387</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3111,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4526636004.962097</v>
+        <v>3324718604.406496</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08188449502736894</v>
+        <v>0.07926619560790653</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0317744260634011</v>
+        <v>0.02812151422515742</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>238</v>
+      </c>
+      <c r="J76" t="n">
+        <v>495</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3146,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2159332506.446588</v>
+        <v>1840320391.236147</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1793779984875724</v>
+        <v>0.1248144335870668</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02728216078244049</v>
+        <v>0.02834098809569607</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3181,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3601563365.667877</v>
+        <v>3955451504.446187</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1359163509128334</v>
+        <v>0.08398580833377053</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03484771327558482</v>
+        <v>0.04861977915388691</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>246</v>
+      </c>
+      <c r="J78" t="n">
+        <v>497</v>
+      </c>
+      <c r="K78" t="n">
+        <v>29.11150645599449</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1162887324.991833</v>
+        <v>1411010489.074535</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1742296105501493</v>
+        <v>0.1176417669236049</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0266375697949613</v>
+        <v>0.03923478534262059</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4890093355.706953</v>
+        <v>5148263653.162905</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09610549427210896</v>
+        <v>0.09774741773458927</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03719481988659178</v>
+        <v>0.03873578519641316</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>243</v>
+      </c>
+      <c r="J80" t="n">
+        <v>496</v>
+      </c>
+      <c r="K80" t="n">
+        <v>24.35920976080257</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3290,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4845671151.900454</v>
+        <v>5221129135.091895</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1072346892798843</v>
+        <v>0.1174062370128702</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02410746205163012</v>
+        <v>0.02169125522226288</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>232</v>
+      </c>
+      <c r="J81" t="n">
+        <v>497</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3331,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3624981899.054965</v>
+        <v>5523757571.52586</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1324659848912541</v>
+        <v>0.1605812082495885</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02520432792394829</v>
+        <v>0.0220598160785545</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>325</v>
+      </c>
+      <c r="J82" t="n">
+        <v>496</v>
+      </c>
+      <c r="K82" t="n">
+        <v>26.12964917507311</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1546918349.645283</v>
+        <v>1592403378.164067</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1426341394880109</v>
+        <v>0.1208398577308911</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04047736009841057</v>
+        <v>0.04430340392340031</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3403,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2152159350.601244</v>
+        <v>2053886143.748134</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1105757070210906</v>
+        <v>0.08588597780678668</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05234977549341133</v>
+        <v>0.04921871165141774</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3438,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2321952911.82491</v>
+        <v>2884073656.530344</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1803532124191239</v>
+        <v>0.1540921269666489</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05248626148872997</v>
+        <v>0.04595466013233247</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>74</v>
+      </c>
+      <c r="J85" t="n">
+        <v>485</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2663755609.753376</v>
+        <v>2132135311.444342</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1535115575051951</v>
+        <v>0.1658596062725906</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0180656154229514</v>
+        <v>0.01665566051235364</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1434222587.186972</v>
+        <v>1232471044.604312</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1405868239654419</v>
+        <v>0.1243498841017711</v>
       </c>
       <c r="G87" t="n">
-        <v>0.027093032805751</v>
+        <v>0.03035507973944299</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3537,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3548349819.093875</v>
+        <v>2599384489.334507</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1447951240699316</v>
+        <v>0.1354809320671859</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03411963992677811</v>
+        <v>0.03573741591806782</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>72</v>
+      </c>
+      <c r="J88" t="n">
+        <v>496</v>
+      </c>
+      <c r="K88" t="n">
+        <v>23.39012258339629</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2413976114.759627</v>
+        <v>2782464221.592144</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1034327647330997</v>
+        <v>0.1115489733826793</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03079826793270933</v>
+        <v>0.02980665907289417</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>34</v>
+      </c>
+      <c r="J89" t="n">
+        <v>495</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1443054188.721832</v>
+        <v>1578679672.865181</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0935302000586726</v>
+        <v>0.08340275239933882</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03937986512508065</v>
+        <v>0.03453967030269547</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2089254582.076007</v>
+        <v>1871348555.78828</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1183234562568649</v>
+        <v>0.1775334936387332</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06065328545843472</v>
+        <v>0.05167258972127088</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2152533996.392299</v>
+        <v>2118323726.221821</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09137679471814492</v>
+        <v>0.1018026703484406</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04627366453025607</v>
+        <v>0.04547664329483055</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3131489324.362385</v>
+        <v>4831577529.780268</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1022868443148758</v>
+        <v>0.1290960961435469</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04448168044524455</v>
+        <v>0.04730803734883513</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>239</v>
+      </c>
+      <c r="J93" t="n">
+        <v>496</v>
+      </c>
+      <c r="K93" t="n">
+        <v>26.59874112879681</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1989093521.634355</v>
+        <v>2117972340.828302</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1462968433448829</v>
+        <v>0.1483081329828183</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0397649298820839</v>
+        <v>0.03792424482953576</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3013353384.49863</v>
+        <v>2574004447.862308</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1072284447393537</v>
+        <v>0.09152472435108816</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04405156302548609</v>
+        <v>0.04485291584117206</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1671764932.000087</v>
+        <v>2070586562.667255</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1306374224953933</v>
+        <v>0.1312162451245733</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02998805760717576</v>
+        <v>0.02896029581674435</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3235000715.173354</v>
+        <v>3991243791.951695</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1080801897266269</v>
+        <v>0.1436213328415147</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02830092105476036</v>
+        <v>0.02373225818670077</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>258</v>
+      </c>
+      <c r="J97" t="n">
+        <v>497</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3891,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3546441179.551737</v>
+        <v>3090191104.542087</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1227772016469244</v>
+        <v>0.09259636647241193</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01976971260554324</v>
+        <v>0.0203935921685001</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>129</v>
+      </c>
+      <c r="J98" t="n">
+        <v>495</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3926,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3097194869.029088</v>
+        <v>3164808542.497683</v>
       </c>
       <c r="F99" t="n">
-        <v>0.133812417498422</v>
+        <v>0.1357007232850298</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03137627742545342</v>
+        <v>0.03363330325325747</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3967,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3498324787.35841</v>
+        <v>3035412690.981692</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1771426644487986</v>
+        <v>0.1713195427444426</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02595424503692986</v>
+        <v>0.02786559507134641</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>232</v>
+      </c>
+      <c r="J100" t="n">
+        <v>496</v>
+      </c>
+      <c r="K100" t="n">
+        <v>17.02927573855343</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3415225613.414637</v>
+        <v>2799402946.150639</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1343793129155084</v>
+        <v>0.2106593738987595</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04607031344447747</v>
+        <v>0.0482208849132244</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>47</v>
+      </c>
+      <c r="J101" t="n">
+        <v>497</v>
+      </c>
+      <c r="K101" t="n">
+        <v>42.28215605255045</v>
       </c>
     </row>
   </sheetData>
